--- a/Queries.xlsx
+++ b/Queries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אבישי\Desktop\לימודים\שנה ב\סמסטר א\עיצוב ממשק משתמש\פרוייקט - הגשה סופית\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\GitHub\DB-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Rational algebra</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>SELECT *,SUM(books_purchase.quantity) AS sold_in_total FROM books_purchase JOIN books ON books.title=books_purchase.book_ttl WHERE books_purchase.purchase_id=ANY(SELECT purchase_id FROM purchases WHERE was_cancelled=false AND date&gt;=? AND date&lt;=?) GROUP BY books_purchase.book_ttl ORDER BY sold_in_total DESC LIMIT 10</t>
+  </si>
+  <si>
+    <t>מגישים: אלעד יצחק (201414283) ואבישי נודלמן (300012614)</t>
   </si>
 </sst>
 </file>
@@ -124,13 +127,19 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -249,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,8 +591,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -591,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -600,7 +619,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -609,7 +628,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -618,7 +637,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -627,7 +646,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -636,7 +655,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -645,7 +664,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -654,7 +673,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -663,7 +682,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -672,7 +691,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -681,7 +700,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -690,7 +709,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -699,7 +718,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -708,7 +727,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -770,7 +789,10 @@
       <c r="D22" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>